--- a/src/main/resources/积分明细/二季度各岗位排名.xlsx
+++ b/src/main/resources/积分明细/二季度各岗位排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xrazyang/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A356EF-D5EB-884A-AE7A-F77E48A1DEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3CBF86-8E16-2B4C-B476-F9624B82ABD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27960" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,15 +613,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,14 +657,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -731,26 +718,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,7 +748,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -807,29 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24"/>
@@ -1152,34 +1106,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="56" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="I1" s="13" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="2">
         <v>262.5</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1189,27 +1143,27 @@
       <c r="G2" s="5">
         <v>266.5</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="2">
         <v>222.5</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1219,27 +1173,27 @@
       <c r="G3" s="5">
         <v>251</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>252.5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="2">
         <v>193.5</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1249,27 +1203,27 @@
       <c r="G4" s="5">
         <v>239</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>251.5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="2">
         <v>166</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1279,27 +1233,27 @@
       <c r="G5" s="5">
         <v>167</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>228.5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="2">
         <v>165</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1309,13 +1263,13 @@
       <c r="G6" s="5">
         <v>153.5</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>209</v>
       </c>
     </row>
@@ -1326,10 +1280,10 @@
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="2">
         <v>164.5</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1339,27 +1293,27 @@
       <c r="G7" s="5">
         <v>148.5</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="2">
         <v>157</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1369,13 +1323,13 @@
       <c r="G8" s="5">
         <v>129.5</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>191</v>
       </c>
     </row>
@@ -1386,10 +1340,10 @@
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="2">
         <v>150</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1399,27 +1353,27 @@
       <c r="G9" s="5">
         <v>113</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="2">
         <v>139</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1429,13 +1383,13 @@
       <c r="G10" s="5">
         <v>111</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>185.5</v>
       </c>
     </row>
@@ -1446,10 +1400,10 @@
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="2">
         <v>131</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1459,27 +1413,27 @@
       <c r="G11" s="5">
         <v>110.5</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="2">
         <v>121</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
@@ -1489,13 +1443,13 @@
       <c r="G12" s="5">
         <v>109</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="I12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <v>181.5</v>
       </c>
     </row>
@@ -1506,10 +1460,10 @@
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="2">
         <v>112.5</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1519,27 +1473,27 @@
       <c r="G13" s="5">
         <v>107.5</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="I13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="2">
         <v>111</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1549,13 +1503,13 @@
       <c r="G14" s="5">
         <v>98</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="I14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="4">
         <v>146.5</v>
       </c>
     </row>
@@ -1566,10 +1520,10 @@
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="2">
         <v>97.5</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1579,13 +1533,13 @@
       <c r="G15" s="5">
         <v>94</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="I15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <v>144.5</v>
       </c>
     </row>
@@ -1599,7 +1553,7 @@
       <c r="C16" s="2">
         <v>85</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1609,27 +1563,27 @@
       <c r="G16" s="5">
         <v>94</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="I16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="4">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="2">
         <v>76.5</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1639,27 +1593,27 @@
       <c r="G17" s="5">
         <v>82</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="I17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="4">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="2">
         <v>72.5</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
@@ -1669,27 +1623,27 @@
       <c r="G18" s="5">
         <v>76.5</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="I18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="4">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="2">
         <v>68.5</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
@@ -1699,27 +1653,27 @@
       <c r="G19" s="5">
         <v>73.5</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="I19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="4">
         <v>133.5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="2">
         <v>68</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
@@ -1729,13 +1683,13 @@
       <c r="G20" s="5">
         <v>62.5</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="6" t="s">
+      <c r="I20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="4">
         <v>132.5</v>
       </c>
     </row>
@@ -1749,7 +1703,7 @@
       <c r="C21" s="2">
         <v>66.5</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
@@ -1759,13 +1713,13 @@
       <c r="G21" s="5">
         <v>59</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="I21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="4">
         <v>128</v>
       </c>
     </row>
@@ -1779,7 +1733,7 @@
       <c r="C22" s="2">
         <v>65.5</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
@@ -1789,27 +1743,27 @@
       <c r="G22" s="5">
         <v>57.5</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="6" t="s">
+      <c r="I22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="2">
         <v>58</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
@@ -1819,27 +1773,27 @@
       <c r="G23" s="5">
         <v>50.5</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="6" t="s">
+      <c r="I23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="2">
         <v>57</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
         <v>3</v>
       </c>
@@ -1849,27 +1803,27 @@
       <c r="G24" s="5">
         <v>47</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="6" t="s">
+      <c r="I24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="4">
         <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="2">
         <v>50</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="5" t="s">
         <v>6</v>
       </c>
@@ -1879,13 +1833,13 @@
       <c r="G25" s="5">
         <v>46.5</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="6" t="s">
+      <c r="I25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="4">
         <v>112.5</v>
       </c>
     </row>
@@ -1908,24 +1862,24 @@
       <c r="G26" s="5">
         <v>43.5</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="6" t="s">
+      <c r="I26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="4">
         <v>111.5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="2">
         <v>47.5</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -1937,13 +1891,13 @@
       <c r="G27" s="5">
         <v>40</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="6" t="s">
+      <c r="I27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="4">
         <v>108</v>
       </c>
     </row>
@@ -1966,24 +1920,24 @@
       <c r="G28" s="5">
         <v>38.5</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="6" t="s">
+      <c r="I28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="4">
         <v>103.5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="2">
         <v>43.5</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -1995,24 +1949,24 @@
       <c r="G29" s="5">
         <v>38</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="6" t="s">
+      <c r="I29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="4">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="2">
         <v>41</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -2024,13 +1978,13 @@
       <c r="G30" s="5">
         <v>29</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="6" t="s">
+      <c r="I30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="4">
         <v>103</v>
       </c>
     </row>
@@ -2053,24 +2007,24 @@
       <c r="G31" s="5">
         <v>24.5</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="6" t="s">
+      <c r="I31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="4">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="2">
         <v>36.5</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -2082,13 +2036,13 @@
       <c r="G32" s="5">
         <v>22.5</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="6" t="s">
+      <c r="I32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="4">
         <v>98.5</v>
       </c>
     </row>
@@ -2111,24 +2065,24 @@
       <c r="G33" s="5">
         <v>21</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="6" t="s">
+      <c r="I33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="4">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="19" t="s">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="2">
         <v>7</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -2140,13 +2094,13 @@
       <c r="G34" s="5">
         <v>20</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J34" s="6" t="s">
+      <c r="I34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="4">
         <v>98</v>
       </c>
     </row>
@@ -2169,24 +2123,24 @@
       <c r="G35" s="5">
         <v>19.5</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="6" t="s">
+      <c r="I35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="4">
         <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="2">
         <v>-1.5</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -2198,24 +2152,24 @@
       <c r="G36" s="5">
         <v>17</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="6" t="s">
+      <c r="I36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="4">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="19" t="s">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="2">
         <v>-1.5</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -2227,24 +2181,24 @@
       <c r="G37" s="5">
         <v>16.5</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="6" t="s">
+      <c r="I37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="4">
         <v>93.5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="19" t="s">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="2">
         <v>-1.5</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -2256,13 +2210,13 @@
       <c r="G38" s="5">
         <v>9</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="6" t="s">
+      <c r="I38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="4">
         <v>89.5</v>
       </c>
     </row>
@@ -2276,13 +2230,13 @@
       <c r="G39" s="5">
         <v>4</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="6" t="s">
+      <c r="I39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="4">
         <v>89</v>
       </c>
     </row>
@@ -2296,13 +2250,13 @@
       <c r="G40" s="5">
         <v>1</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="6" t="s">
+      <c r="I40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="4">
         <v>87.5</v>
       </c>
     </row>
@@ -2316,13 +2270,13 @@
       <c r="G41" s="3">
         <v>-1.5</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="6" t="s">
+      <c r="I41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="4">
         <v>84</v>
       </c>
     </row>
@@ -2336,508 +2290,508 @@
       <c r="G42" s="3">
         <v>-27</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="6" t="s">
+      <c r="I42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="4">
         <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="I43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="6" t="s">
+      <c r="I43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="4">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="I44" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="6" t="s">
+      <c r="I44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="4">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="I45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="6" t="s">
+      <c r="I45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="4">
         <v>73.5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="I46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="6" t="s">
+      <c r="I46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="4">
         <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="I47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" s="6" t="s">
+      <c r="I47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="4">
         <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="I48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="6" t="s">
+      <c r="I48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="4">
         <v>66.5</v>
       </c>
     </row>
     <row r="49" spans="9:11">
-      <c r="I49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" s="6" t="s">
+      <c r="I49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="4">
         <v>66.5</v>
       </c>
     </row>
     <row r="50" spans="9:11">
-      <c r="I50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J50" s="6" t="s">
+      <c r="I50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="4">
         <v>60.5</v>
       </c>
     </row>
     <row r="51" spans="9:11">
-      <c r="I51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="6" t="s">
+      <c r="I51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="52" spans="9:11">
-      <c r="I52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="6" t="s">
+      <c r="I52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="4">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="9:11">
-      <c r="I53" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" s="6" t="s">
+      <c r="I53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="4">
         <v>58.5</v>
       </c>
     </row>
     <row r="54" spans="9:11">
-      <c r="I54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="6" t="s">
+      <c r="I54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="4">
         <v>58.5</v>
       </c>
     </row>
     <row r="55" spans="9:11">
-      <c r="I55" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="6" t="s">
+      <c r="I55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="4">
         <v>57.5</v>
       </c>
     </row>
     <row r="56" spans="9:11">
-      <c r="I56" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56" s="6" t="s">
+      <c r="I56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="4">
         <v>54.5</v>
       </c>
     </row>
     <row r="57" spans="9:11">
-      <c r="I57" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="6" t="s">
+      <c r="I57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="4">
         <v>53.5</v>
       </c>
     </row>
     <row r="58" spans="9:11">
-      <c r="I58" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" s="6" t="s">
+      <c r="I58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="4">
         <v>53.5</v>
       </c>
     </row>
     <row r="59" spans="9:11">
-      <c r="I59" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J59" s="6" t="s">
+      <c r="I59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="4">
         <v>52.5</v>
       </c>
     </row>
     <row r="60" spans="9:11">
-      <c r="I60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" s="6" t="s">
+      <c r="I60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="4">
         <v>52.5</v>
       </c>
     </row>
     <row r="61" spans="9:11">
-      <c r="I61" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="6" t="s">
+      <c r="I61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="4">
         <v>50.5</v>
       </c>
     </row>
     <row r="62" spans="9:11">
-      <c r="I62" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J62" s="6" t="s">
+      <c r="I62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="63" spans="9:11">
-      <c r="I63" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J63" s="6" t="s">
+      <c r="I63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="4">
         <v>49.5</v>
       </c>
     </row>
     <row r="64" spans="9:11">
-      <c r="I64" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J64" s="6" t="s">
+      <c r="I64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="4">
         <v>47</v>
       </c>
     </row>
     <row r="65" spans="9:11">
-      <c r="I65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J65" s="6" t="s">
+      <c r="I65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="4">
         <v>46</v>
       </c>
     </row>
     <row r="66" spans="9:11">
-      <c r="I66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="6" t="s">
+      <c r="I66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="4">
         <v>44.5</v>
       </c>
     </row>
     <row r="67" spans="9:11">
-      <c r="I67" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J67" s="6" t="s">
+      <c r="I67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="4">
         <v>41.5</v>
       </c>
     </row>
     <row r="68" spans="9:11">
-      <c r="I68" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J68" s="6" t="s">
+      <c r="I68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="4">
         <v>41</v>
       </c>
     </row>
     <row r="69" spans="9:11">
-      <c r="I69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J69" s="6" t="s">
+      <c r="I69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="4">
         <v>37.5</v>
       </c>
     </row>
     <row r="70" spans="9:11">
-      <c r="I70" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="6" t="s">
+      <c r="I70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K70" s="4">
         <v>35.5</v>
       </c>
     </row>
     <row r="71" spans="9:11">
-      <c r="I71" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J71" s="6" t="s">
+      <c r="I71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="4">
         <v>35.5</v>
       </c>
     </row>
     <row r="72" spans="9:11">
-      <c r="I72" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="6" t="s">
+      <c r="I72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72" s="4">
         <v>31.5</v>
       </c>
     </row>
     <row r="73" spans="9:11">
-      <c r="I73" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J73" s="6" t="s">
+      <c r="I73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="4">
         <v>30.5</v>
       </c>
     </row>
     <row r="74" spans="9:11">
-      <c r="I74" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74" s="6" t="s">
+      <c r="I74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K74" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="75" spans="9:11">
-      <c r="I75" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J75" s="6" t="s">
+      <c r="I75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="76" spans="9:11">
-      <c r="I76" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="6" t="s">
+      <c r="I76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K76" s="4">
         <v>28</v>
       </c>
     </row>
     <row r="77" spans="9:11">
-      <c r="I77" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J77" s="6" t="s">
+      <c r="I77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J77" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77" s="4">
         <v>26.5</v>
       </c>
     </row>
     <row r="78" spans="9:11">
-      <c r="I78" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J78" s="6" t="s">
+      <c r="I78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K78" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="79" spans="9:11">
-      <c r="I79" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J79" s="6" t="s">
+      <c r="I79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="4">
         <v>22.5</v>
       </c>
     </row>
     <row r="80" spans="9:11">
-      <c r="I80" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" s="6" t="s">
+      <c r="I80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K80" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="81" spans="9:11">
-      <c r="I81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J81" s="6" t="s">
+      <c r="I81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J81" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K81" s="4">
         <v>20.5</v>
       </c>
     </row>
     <row r="82" spans="9:11">
-      <c r="I82" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J82" s="6" t="s">
+      <c r="I82" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K82" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="83" spans="9:11">
-      <c r="I83" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J83" s="6" t="s">
+      <c r="I83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J83" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K83" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="84" spans="9:11">
-      <c r="I84" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" s="6" t="s">
+      <c r="I84" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K84" s="4">
         <v>16.5</v>
       </c>
     </row>
     <row r="85" spans="9:11">
-      <c r="I85" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J85" s="6" t="s">
+      <c r="I85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K85" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="86" spans="9:11">
-      <c r="I86" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J86" s="6" t="s">
+      <c r="I86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K86" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="87" spans="9:11">
-      <c r="I87" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87" s="6" t="s">
+      <c r="I87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K87" s="4">
         <v>12.5</v>
       </c>
     </row>
@@ -2853,57 +2807,57 @@
       </c>
     </row>
     <row r="89" spans="9:11">
-      <c r="I89" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="6" t="s">
+      <c r="I89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K89" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="9:11">
-      <c r="I90" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J90" s="6" t="s">
+      <c r="I90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K90" s="6">
+      <c r="K90" s="4">
         <v>9.5</v>
       </c>
     </row>
     <row r="91" spans="9:11">
-      <c r="I91" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="6" t="s">
+      <c r="I91" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K91" s="4">
         <v>6.5</v>
       </c>
     </row>
     <row r="92" spans="9:11">
-      <c r="I92" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J92" s="6" t="s">
+      <c r="I92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J92" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K92" s="6">
+      <c r="K92" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="9:11">
-      <c r="I93" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J93" s="6" t="s">
+      <c r="I93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K93" s="6">
+      <c r="K93" s="4">
         <v>4.5</v>
       </c>
     </row>
@@ -2919,68 +2873,68 @@
       </c>
     </row>
     <row r="95" spans="9:11">
-      <c r="I95" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J95" s="6" t="s">
+      <c r="I95" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J95" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="K95" s="6">
+      <c r="K95" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="96" spans="9:11">
-      <c r="I96" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J96" s="6" t="s">
+      <c r="I96" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J96" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="K96" s="6">
+      <c r="K96" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="9:11">
-      <c r="I97" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J97" s="6" t="s">
+      <c r="I97" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J97" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="K97" s="6">
+      <c r="K97" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="9:11">
-      <c r="I98" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J98" s="6" t="s">
+      <c r="I98" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J98" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K98" s="6">
+      <c r="K98" s="4">
         <v>-5</v>
       </c>
     </row>
     <row r="99" spans="9:11">
-      <c r="I99" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J99" s="6" t="s">
+      <c r="I99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J99" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="K99" s="6">
+      <c r="K99" s="4">
         <v>-11.5</v>
       </c>
     </row>
     <row r="100" spans="9:11">
-      <c r="I100" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J100" s="6" t="s">
+      <c r="I100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="K100" s="6">
+      <c r="K100" s="4">
         <v>-12.5</v>
       </c>
     </row>
